--- a/Data/zcb elastic 0.75 hedge.xlsx
+++ b/Data/zcb elastic 0.75 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-26372.45693277134</v>
+        <v>-31961.07476974376</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-24105.18871296863</v>
+        <v>-29721.40519265196</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-23025.23765106781</v>
+        <v>-28593.14526615576</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-21808.46475287706</v>
+        <v>-27383.26608973521</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-20717.91667231407</v>
+        <v>-26294.76223706811</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-20252.16066880794</v>
+        <v>-25795.84580221754</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-19245.28455498824</v>
+        <v>-24785.13676992661</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-18435.46645057988</v>
+        <v>-23974.04897896297</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-17783.00690171181</v>
+        <v>-23249.80818386228</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-17045.77684065202</v>
+        <v>-22517.61459966708</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-16388.96195307354</v>
+        <v>-21876.83084820069</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-15842.82353366097</v>
+        <v>-21314.13952222782</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-14895.12818079887</v>
+        <v>-20328.27642229564</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-14454.6918973992</v>
+        <v>-19895.44572940972</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-13693.06185110107</v>
+        <v>-19121.99703376185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-12996.94216965418</v>
+        <v>-18429.29177643824</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-12324.4036888144</v>
+        <v>-17754.20861719058</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-11897.76838729914</v>
+        <v>-17318.04264703796</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-11336.67375473781</v>
+        <v>-16722.22743098008</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-10868.53803966024</v>
+        <v>-16224.15297719768</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-10374.01584774339</v>
+        <v>-15757.52892454957</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-10035.87633097025</v>
+        <v>-15384.98521496594</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-9295.379899618853</v>
+        <v>-14601.17996773951</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>9300.328230422407</v>
+        <v>-215668.8682348912</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-8593.938332239115</v>
+        <v>-12985.47038782988</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-8140.262904491001</v>
+        <v>-12508.48631651284</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-7785.678539367027</v>
+        <v>-12152.48653757573</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-7312.415335557498</v>
+        <v>-11665.47688275711</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-6851.303767307296</v>
+        <v>-11233.02176662022</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-6507.308604693571</v>
+        <v>-10867.70810458576</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-6184.232398878965</v>
+        <v>-10562.22020771219</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5862.697812714585</v>
+        <v>-10205.23611644531</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5551.893100269333</v>
+        <v>-9932.948091017197</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5284.586240845269</v>
+        <v>-9641.076207988264</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-4815.660096806428</v>
+        <v>-9185.420130884058</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>34923.18593471128</v>
+        <v>-189022.2651301641</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4411.202972917147</v>
+        <v>-7958.885320832467</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4142.20697733009</v>
+        <v>-7701.869067360911</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-3721.781613994352</v>
+        <v>-7308.67330256174</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-3567.352024098357</v>
+        <v>-7118.752233620336</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-3144.665441002301</v>
+        <v>-6716.608341521021</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-2843.987765589878</v>
+        <v>-6398.894412078837</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-2535.078186764296</v>
+        <v>-6087.025218480386</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-2108.44476353131</v>
+        <v>-5674.085686931478</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-1953.400506432237</v>
+        <v>-5513.438518419516</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-1671.767923324794</v>
+        <v>-5276.285383016911</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-1363.308986497925</v>
+        <v>-4947.575125049111</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-1157.663478970983</v>
+        <v>-4715.225702255175</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-960.772769059823</v>
+        <v>-4550.471385574397</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-773.6633587934284</v>
+        <v>-4353.110337153309</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-541.740306306988</v>
+        <v>-4126.668288493244</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-483.1715946064413</v>
+        <v>-4027.556744494755</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-313.6889627187584</v>
+        <v>-3813.226014809328</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-202.7857129118569</v>
+        <v>-3724.561864955875</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-94.0643951590643</v>
+        <v>-3663.779429410763</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>52.19789205944898</v>
+        <v>-3535.15152196709</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>160.8359741430666</v>
+        <v>-3459.873813845389</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>215.3611778641974</v>
+        <v>-3352.294702739842</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>313.3110945935724</v>
+        <v>-3291.932581566791</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>292513.7954030783</v>
+        <v>-492792.1301661753</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-828.5444911792208</v>
+        <v>-2015.931700789462</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-767.4944754775436</v>
+        <v>-1971.16316349716</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-668.8271977123686</v>
+        <v>-1889.776350581525</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-565.6951109291787</v>
+        <v>-1802.357415263916</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-512.7762420256277</v>
+        <v>-1729.988719350574</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-414.7299047374937</v>
+        <v>-1637.819779503578</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-371.1194940323309</v>
+        <v>-1586.580712456112</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-258.7896401587803</v>
+        <v>-1517.517251664203</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-161.3075208385963</v>
+        <v>-1429.427884926126</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-75.48472239978871</v>
+        <v>-1336.958455235831</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-23.32572868782476</v>
+        <v>-1286.357436820676</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>32.52844905836064</v>
+        <v>-1238.257844748254</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>110.7671156967629</v>
+        <v>-1161.888608685073</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>174.8780567976538</v>
+        <v>-1094.111064100928</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>222.7000598608313</v>
+        <v>-1046.85477765693</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>270.3426520727266</v>
+        <v>-987.900661404699</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>319.5106147242608</v>
+        <v>-929.0788645989162</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>388.6898234798679</v>
+        <v>-894.9591573132054</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>397.6820432353468</v>
+        <v>-892.3168496807434</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>440.0305347589804</v>
+        <v>-847.0283684003427</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>504.7646068201162</v>
+        <v>-808.6520754683917</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>457.6393723530302</v>
+        <v>-781.418320940884</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>508.9749241135029</v>
+        <v>-754.459394917168</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>114847.1134320964</v>
+        <v>-121320.6568048993</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>169.9907808123171</v>
+        <v>-526.9952025562926</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>195.6255514663832</v>
+        <v>-497.5774961479119</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>260.7802441483545</v>
+        <v>-475.8587495060237</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>297.1189616820216</v>
+        <v>-456.3597856724533</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>314.3279822188575</v>
+        <v>-415.5864136207944</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>333.9988892241211</v>
+        <v>-396.7941061694139</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>303.4232488091337</v>
+        <v>-380.4423410049262</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>339.6601988305995</v>
+        <v>-353.0557156239743</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>351.7891695166691</v>
+        <v>-334.0430655595938</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>383.0575661623519</v>
+        <v>-321.0002314028883</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>398.6737845697191</v>
+        <v>-306.3885665225496</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>54259.84781665837</v>
+        <v>-91363.61650099928</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>327.2237830656323</v>
+        <v>-239.7734762194173</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>319.8256247381722</v>
+        <v>-226.5629555873678</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>339.5851680713826</v>
+        <v>-188.6515247439663</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>374.3477150561517</v>
+        <v>-159.9110375702049</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>395.8203495191017</v>
+        <v>-152.1396277614496</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>414.0546465004985</v>
+        <v>-138.70727285321</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>433.4935898391182</v>
+        <v>-110.8106779019083</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>445.1853987205876</v>
+        <v>-92.54425806715837</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>442.3982200061504</v>
+        <v>-72.43053326277268</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>465.5990650297559</v>
+        <v>-64.0527019610702</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>504.1829558435394</v>
+        <v>-39.60741899868725</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>485.1217318264081</v>
+        <v>-34.52976160431873</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>488.5246604222738</v>
+        <v>-26.01447991653192</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>531.2333882651035</v>
+        <v>-16.37313029126839</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>521.5351446396999</v>
+        <v>-10.85614603387889</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>542.0297470671009</v>
+        <v>7.303778556127951</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>516.6338750059118</v>
+        <v>11.9807396673515</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>489.2271292555825</v>
+        <v>8.381168624650975</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>539.2791871171464</v>
+        <v>16.21178283800118</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>517.6881061617047</v>
+        <v>19.75689791126507</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>530.2346047266367</v>
+        <v>20.62743815893111</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>521.0723248059494</v>
+        <v>14.51848166635338</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>514.1010788440536</v>
+        <v>6.420895310010327</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>127871.031443486</v>
+        <v>-83484.7152141031</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.75 hedge.xlsx
+++ b/Data/zcb elastic 0.75 hedge.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Hedge withzcb" sheetId="1" r:id="rId1"/>
+    <sheet name="Hedge with zcb" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-31961.07476974376</v>
+        <v>-7611.713289975696</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-29721.40519265196</v>
+        <v>-7581.701336343025</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-28593.14526615576</v>
+        <v>-7553.952014975883</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-27383.26608973521</v>
+        <v>-7519.131874249189</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-26294.76223706811</v>
+        <v>-7472.111714932514</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-25795.84580221754</v>
+        <v>-7436.630016007415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-24785.13676992661</v>
+        <v>-7402.778314481113</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-23974.04897896297</v>
+        <v>-7353.169421789055</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-23249.80818386228</v>
+        <v>-7318.167604517061</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-22517.61459966708</v>
+        <v>-7292.438472161931</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-21876.83084820069</v>
+        <v>-7260.831718696998</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-21314.13952222782</v>
+        <v>-7221.982203147105</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-20328.27642229564</v>
+        <v>-7189.186263899507</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-19895.44572940972</v>
+        <v>-7153.244775054687</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-19121.99703376185</v>
+        <v>-7130.262929594315</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-18429.29177643824</v>
+        <v>-7091.064309678591</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-17754.20861719058</v>
+        <v>-7055.920003985926</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-17318.04264703796</v>
+        <v>-7031.395924893385</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-16722.22743098008</v>
+        <v>-6986.879140075405</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-16224.15297719768</v>
+        <v>-6952.978216465039</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-15757.52892454957</v>
+        <v>-6925.19813220211</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-15384.98521496594</v>
+        <v>-6896.72706851665</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-14601.17996773951</v>
+        <v>-6861.517783246985</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-215668.8682348912</v>
+        <v>-224423.1665786902</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-12985.47038782988</v>
+        <v>-5828.340048533814</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-12508.48631651284</v>
+        <v>-5806.88949510664</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-12152.48653757573</v>
+        <v>-5782.033766275303</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-11665.47688275711</v>
+        <v>-5755.513634703834</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-11233.02176662022</v>
+        <v>-5731.829969023385</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-10867.70810458576</v>
+        <v>-5711.116455479871</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-10562.22020771219</v>
+        <v>-5684.943343587609</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-10205.23611644531</v>
+        <v>-5665.195687890328</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-9932.948091017197</v>
+        <v>-5639.880753040526</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-9641.076207988264</v>
+        <v>-5614.177640507105</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-9185.420130884058</v>
+        <v>-5592.628524237172</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-189022.2651301641</v>
+        <v>-223362.0761334015</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-7958.885320832467</v>
+        <v>-4730.67893730746</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-7701.869067360911</v>
+        <v>-4693.618263404707</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-7308.67330256174</v>
+        <v>-4668.431807197681</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-7118.752233620336</v>
+        <v>-4648.520852103101</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-6716.608341521021</v>
+        <v>-4624.639532631793</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-6398.894412078837</v>
+        <v>-4613.987673580989</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-6087.025218480386</v>
+        <v>-4589.218697095945</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-5674.085686931478</v>
+        <v>-4576.520881476958</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-5513.438518419516</v>
+        <v>-4555.560346840496</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-5276.285383016911</v>
+        <v>-4537.436018777977</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4947.575125049111</v>
+        <v>-4513.181844074609</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4715.225702255175</v>
+        <v>-4489.174906082918</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4550.471385574397</v>
+        <v>-4466.822945136902</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4353.110337153309</v>
+        <v>-4446.625360796697</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4126.668288493244</v>
+        <v>-4428.881136486868</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4027.556744494755</v>
+        <v>-4417.694697983483</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-3813.226014809328</v>
+        <v>-4396.819008684713</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-3724.561864955875</v>
+        <v>-4383.568875817725</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-3663.779429410763</v>
+        <v>-4372.643784716453</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-3535.15152196709</v>
+        <v>-4355.679546660491</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-3459.873813845389</v>
+        <v>-4329.585669193219</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-3352.294702739842</v>
+        <v>-4310.951760689315</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-3291.932581566791</v>
+        <v>-4295.100730419261</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-492792.1301661753</v>
+        <v>-781164.5913495413</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-2015.931700789462</v>
+        <v>-1900.69013101087</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1971.16316349716</v>
+        <v>-1884.820851373714</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1889.776350581525</v>
+        <v>-1867.997182213428</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1802.357415263916</v>
+        <v>-1852.483136870826</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1729.988719350574</v>
+        <v>-1832.18142498526</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1637.819779503578</v>
+        <v>-1825.473287029366</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1586.580712456112</v>
+        <v>-1798.690526171439</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1517.517251664203</v>
+        <v>-1763.005376777546</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1429.427884926126</v>
+        <v>-1758.3534805899</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1336.958455235831</v>
+        <v>-1733.368632480069</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1286.357436820676</v>
+        <v>-1718.892444783172</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1238.257844748254</v>
+        <v>-1705.660431311486</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1161.888608685073</v>
+        <v>-1687.346372977025</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1094.111064100928</v>
+        <v>-1660.675039476912</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1046.85477765693</v>
+        <v>-1646.800982090603</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-987.900661404699</v>
+        <v>-1624.684266734705</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-929.0788645989162</v>
+        <v>-1616.648312971804</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-894.9591573132054</v>
+        <v>-1600.296632133495</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-892.3168496807434</v>
+        <v>-1571.130990590705</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-847.0283684003427</v>
+        <v>-1560.37870417819</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-808.6520754683917</v>
+        <v>-1544.982076140165</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-781.418320940884</v>
+        <v>-1525.328436140104</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-754.459394917168</v>
+        <v>-1512.346300126916</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-121320.6568048993</v>
+        <v>-235217.111413887</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-526.9952025562926</v>
+        <v>-941.7962225439405</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-497.5774961479119</v>
+        <v>-916.2022476640716</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-475.8587495060237</v>
+        <v>-897.4364975277527</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-456.3597856724533</v>
+        <v>-876.1222282587931</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-415.5864136207944</v>
+        <v>-854.5639144316148</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-396.7941061694139</v>
+        <v>-836.8275963655871</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-380.4423410049262</v>
+        <v>-819.3343996551724</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-353.0557156239743</v>
+        <v>-805.5490953717228</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-334.0430655595938</v>
+        <v>-790.5835994597286</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-321.0002314028883</v>
+        <v>-761.7349348599065</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-306.3885665225496</v>
+        <v>-738.8164082993444</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-91363.61650099928</v>
+        <v>-144715.6126764245</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-239.7734762194173</v>
+        <v>-540.5722869665316</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-226.5629555873678</v>
+        <v>-532.2753891512629</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-188.6515247439663</v>
+        <v>-503.0836456904922</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-159.9110375702049</v>
+        <v>-485.7307348393691</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-152.1396277614496</v>
+        <v>-469.2005478183067</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-138.70727285321</v>
+        <v>-448.7550123159036</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-110.8106779019083</v>
+        <v>-425.6875065526363</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-92.54425806715837</v>
+        <v>-401.4494224726218</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-72.43053326277268</v>
+        <v>-385.0022652420332</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-64.0527019610702</v>
+        <v>-362.6310009016158</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-39.60741899868725</v>
+        <v>-339.3713485973536</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-34.52976160431873</v>
+        <v>-314.6340524227419</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-26.01447991653192</v>
+        <v>-283.4528735072947</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-16.37313029126839</v>
+        <v>-255.9345664125698</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-10.85614603387889</v>
+        <v>-221.7965657760603</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7.303778556127951</v>
+        <v>-181.284160610407</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>11.9807396673515</v>
+        <v>-147.5687665448884</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>8.381168624650975</v>
+        <v>-111.4779059561415</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>16.21178283800118</v>
+        <v>-72.62571936674222</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>19.75689791126507</v>
+        <v>-28.08839791960606</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>20.62743815893111</v>
+        <v>9.784037317286208</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>14.51848166635338</v>
+        <v>40.86217511049492</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>6.420895310010327</v>
+        <v>66.35294821228445</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-83484.7152141031</v>
+        <v>-67042.85786770779</v>
       </c>
     </row>
   </sheetData>

--- a/Data/zcb elastic 0.75 hedge.xlsx
+++ b/Data/zcb elastic 0.75 hedge.xlsx
@@ -364,7 +364,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-7611.713289975696</v>
+        <v>-27901.10943833829</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -372,7 +372,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-7581.701336343025</v>
+        <v>-28538.9759525938</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -380,7 +380,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-7553.952014975883</v>
+        <v>-28958.55561839141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -388,7 +388,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-7519.131874249189</v>
+        <v>-29287.84499136843</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -396,7 +396,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-7472.111714932514</v>
+        <v>-29455.89449194252</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -404,7 +404,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-7436.630016007415</v>
+        <v>-29261.31662956443</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -412,7 +412,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-7402.778314481113</v>
+        <v>-29076.94045056235</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -420,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-7353.169421789055</v>
+        <v>-28897.00799240773</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -428,7 +428,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-7318.167604517061</v>
+        <v>-28598.21153084924</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -436,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-7292.438472161931</v>
+        <v>-28154.86973159651</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -444,7 +444,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-7260.831718696998</v>
+        <v>-27661.12488887431</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -452,7 +452,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>-7221.982203147105</v>
+        <v>-27228.70571750507</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -460,7 +460,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>-7189.186263899507</v>
+        <v>-26730.44089757993</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -468,7 +468,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-7153.244775054687</v>
+        <v>-26230.34624166264</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -476,7 +476,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>-7130.262929594315</v>
+        <v>-25229.63195984877</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -484,7 +484,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>-7091.064309678591</v>
+        <v>-24292.66342998952</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -492,7 +492,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>-7055.920003985926</v>
+        <v>-23956.76765510931</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -500,7 +500,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>-7031.395924893385</v>
+        <v>-23265.42238332955</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -508,7 +508,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-6986.879140075405</v>
+        <v>-22680.23960500057</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -516,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-6952.978216465039</v>
+        <v>-22059.92793430496</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-6925.19813220211</v>
+        <v>-21405.11074982927</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -532,7 +532,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>-6896.72706851665</v>
+        <v>-20717.4931630004</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -540,7 +540,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>-6861.517783246985</v>
+        <v>-20140.98544765079</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -548,7 +548,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>-224423.1665786902</v>
+        <v>-126511.8973284154</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -556,7 +556,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-5828.340048533814</v>
+        <v>-15978.80610606515</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-5806.88949510664</v>
+        <v>-15746.19151725382</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -572,7 +572,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>-5782.033766275303</v>
+        <v>-15455.13819272514</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -580,7 +580,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-5755.513634703834</v>
+        <v>-14948.54756254993</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -588,7 +588,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-5731.829969023385</v>
+        <v>-14694.45395364377</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -596,7 +596,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-5711.116455479871</v>
+        <v>-14243.89422760686</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -604,7 +604,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>-5684.943343587609</v>
+        <v>-13985.91838762462</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -612,7 +612,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>-5665.195687890328</v>
+        <v>-13508.98440205289</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>-5639.880753040526</v>
+        <v>-13247.44071389696</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -628,7 +628,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-5614.177640507105</v>
+        <v>-12854.66332077859</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -636,7 +636,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>-5592.628524237172</v>
+        <v>-12482.86979047894</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -644,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>-223362.0761334015</v>
+        <v>-118238.1627844094</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -652,7 +652,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>-4730.67893730746</v>
+        <v>-10062.42537202169</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -660,7 +660,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-4693.618263404707</v>
+        <v>-9806.223722719413</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -668,7 +668,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-4668.431807197681</v>
+        <v>-9580.936339477867</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-4648.520852103101</v>
+        <v>-9415.165044426485</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -684,7 +684,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-4624.639532631793</v>
+        <v>-9499.055973639153</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -692,7 +692,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>-4613.987673580989</v>
+        <v>-9191.881195391965</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -700,7 +700,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-4589.218697095945</v>
+        <v>-8804.212160660385</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -708,7 +708,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>-4576.520881476958</v>
+        <v>-8733.225501559209</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -716,7 +716,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>-4555.560346840496</v>
+        <v>-8558.661668441573</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>-4537.436018777977</v>
+        <v>-8432.171328463717</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -732,7 +732,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-4513.181844074609</v>
+        <v>-8329.014543505964</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -740,7 +740,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-4489.174906082918</v>
+        <v>-8092.711727325118</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -748,7 +748,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-4466.822945136902</v>
+        <v>-7834.100681141072</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -756,7 +756,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-4446.625360796697</v>
+        <v>-7668.813618972694</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -764,7 +764,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>-4428.881136486868</v>
+        <v>-7568.818672600259</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -772,7 +772,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-4417.694697983483</v>
+        <v>-7418.709665116006</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -780,7 +780,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>-4396.819008684713</v>
+        <v>-7338.138299450607</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-4383.568875817725</v>
+        <v>-7178.359423564088</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -796,7 +796,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-4372.643784716453</v>
+        <v>-7015.719702912573</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -804,7 +804,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>-4355.679546660491</v>
+        <v>-6787.820013310685</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -812,7 +812,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-4329.585669193219</v>
+        <v>-6653.034244277545</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -820,7 +820,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-4310.951760689315</v>
+        <v>-6561.622509563201</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -828,7 +828,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-4295.100730419261</v>
+        <v>-6480.08564406646</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -836,7 +836,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>-781164.5913495413</v>
+        <v>-375331.6899163769</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -844,7 +844,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1900.69013101087</v>
+        <v>-2445.42221004631</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -852,7 +852,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>-1884.820851373714</v>
+        <v>-2480.834560703455</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -860,7 +860,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>-1867.997182213428</v>
+        <v>-2412.049898801072</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -868,7 +868,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1852.483136870826</v>
+        <v>-2393.951419268194</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -876,7 +876,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>-1832.18142498526</v>
+        <v>-2361.362490987627</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -884,7 +884,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>-1825.473287029366</v>
+        <v>-2308.680339771528</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -892,7 +892,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>-1798.690526171439</v>
+        <v>-2247.176377171709</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -900,7 +900,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1763.005376777546</v>
+        <v>-2223.303281359383</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -908,7 +908,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1758.3534805899</v>
+        <v>-2194.813040164373</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -916,7 +916,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-1733.368632480069</v>
+        <v>-2174.658273158728</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -924,7 +924,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>-1718.892444783172</v>
+        <v>-2136.244350866263</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -932,7 +932,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-1705.660431311486</v>
+        <v>-2092.8168613387</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -940,7 +940,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1687.346372977025</v>
+        <v>-2048.024752825197</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -948,7 +948,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1660.675039476912</v>
+        <v>-2077.479606056578</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -956,7 +956,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>-1646.800982090603</v>
+        <v>-2035.660132763068</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -964,7 +964,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-1624.684266734705</v>
+        <v>-2031.26973692234</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -972,7 +972,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-1616.648312971804</v>
+        <v>-1986.398792523976</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -980,7 +980,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>-1600.296632133495</v>
+        <v>-1955.087157209099</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -988,7 +988,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-1571.130990590705</v>
+        <v>-1890.654980723051</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -996,7 +996,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1560.37870417819</v>
+        <v>-1833.84806972973</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1004,7 +1004,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>-1544.982076140165</v>
+        <v>-1905.526936769357</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>-1525.328436140104</v>
+        <v>-1828.430579612451</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1020,7 +1020,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>-1512.346300126916</v>
+        <v>-1798.974252289786</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>-235217.111413887</v>
+        <v>-120533.7333134806</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1036,7 +1036,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>-941.7962225439405</v>
+        <v>-1029.143193952926</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1044,7 +1044,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>-916.2022476640716</v>
+        <v>-991.7010592608111</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1052,7 +1052,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>-897.4364975277527</v>
+        <v>-1012.287785461164</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1060,7 +1060,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>-876.1222282587931</v>
+        <v>-1014.848745598585</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1068,7 +1068,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>-854.5639144316148</v>
+        <v>-976.5232796078984</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1076,7 +1076,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>-836.8275963655871</v>
+        <v>-929.8724641658167</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1084,7 +1084,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>-819.3343996551724</v>
+        <v>-921.8050583724525</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1092,7 +1092,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>-805.5490953717228</v>
+        <v>-923.4675119328193</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1100,7 +1100,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-790.5835994597286</v>
+        <v>-925.0597953766619</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1108,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>-761.7349348599065</v>
+        <v>-925.3768773149897</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1116,7 +1116,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-738.8164082993444</v>
+        <v>-904.2440664456111</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1124,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-144715.6126764245</v>
+        <v>-97394.4221106545</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1132,7 +1132,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>-540.5722869665316</v>
+        <v>-613.068140209157</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1140,7 +1140,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>-532.2753891512629</v>
+        <v>-572.1656388446773</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1148,7 +1148,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>-503.0836456904922</v>
+        <v>-574.3376632811214</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1156,7 +1156,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>-485.7307348393691</v>
+        <v>-578.4712698994502</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1164,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-469.2005478183067</v>
+        <v>-537.021571199679</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1172,7 +1172,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-448.7550123159036</v>
+        <v>-576.7922349563235</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1180,7 +1180,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-425.6875065526363</v>
+        <v>-564.1633195285091</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1188,7 +1188,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>-401.4494224726218</v>
+        <v>-614.6712424676813</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1196,7 +1196,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-385.0022652420332</v>
+        <v>-551.7641352828451</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1204,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>-362.6310009016158</v>
+        <v>-550.484937373032</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1212,7 +1212,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>-339.3713485973536</v>
+        <v>-541.564274729362</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1220,7 +1220,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>-314.6340524227419</v>
+        <v>-560.4875506481728</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1228,7 +1228,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>-283.4528735072947</v>
+        <v>-562.4105563498975</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1236,7 +1236,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>-255.9345664125698</v>
+        <v>-569.8066284289357</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1244,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>-221.7965657760603</v>
+        <v>-559.9257304218064</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1252,7 +1252,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-181.284160610407</v>
+        <v>-552.6582822802607</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1260,7 +1260,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>-147.5687665448884</v>
+        <v>-543.9797025877155</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1268,7 +1268,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-111.4779059561415</v>
+        <v>-520.9252371774351</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1276,7 +1276,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-72.62571936674222</v>
+        <v>-494.3972986450858</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1284,7 +1284,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>-28.08839791960606</v>
+        <v>-475.8564199316237</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1292,7 +1292,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>9.784037317286208</v>
+        <v>-467.5737261787838</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1300,7 +1300,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>40.86217511049492</v>
+        <v>-487.3267167147745</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1308,7 +1308,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>66.35294821228445</v>
+        <v>-467.9171226464456</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1316,7 +1316,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>-67042.85786770779</v>
+        <v>-111069.2191278917</v>
       </c>
     </row>
   </sheetData>
